--- a/biology/Botanique/Clematis_patens_'Evifive'/Clematis_patens_'Evifive'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Evifive'/Clematis_patens_'Evifive'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evifive%27</t>
+          <t>Clematis_patens_'Evifive'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La clématite patens 'Evifive' PBR &amp; PPaf  est un cultivar de clématite obtenu en 1989 par Raymond Evison en Angleterre. Elle porte le nom commercial de clématite patens Liberation 'Evifive' PBR &amp; PPaf. Elle apparait pour la première fois au catalogue de Raymond Evison en 1995[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite patens 'Evifive' PBR &amp; PPaf  est un cultivar de clématite obtenu en 1989 par Raymond Evison en Angleterre. Elle porte le nom commercial de clématite patens Liberation 'Evifive' PBR &amp; PPaf. Elle apparait pour la première fois au catalogue de Raymond Evison en 1995.
 La clématite Liberation a été commercialisée en 1995 afin de fêter la commémoration de la libération des îles Anglo-Normandes.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evifive%27</t>
+          <t>Clematis_patens_'Evifive'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,23 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette clématite fait partie du groupe 2, ce qui signifie que ce cultivar donnera une floraison printanière sur la pousse de l'année précédente et une seconde à l'automne sur les pousses de l'année.
-Feuilles
-Les feuilles caduques de cette clématite sont parfois simples, parfois alternes et trifoliées. En moyenne elles mesurent 10 cm[2]. De mars à octobre les feuilles sont vertes, en novembre elles virent au jaune juste avant de tomber.
-Tiges
-Les tiges de la clématite Liberation apparaissent de couleur verte sur les pousses de l'année, en vieillissant le bois se durcit et devient rougeâtre et marron[2].
-Fleurs
-La clématite Liberation dispose d'une fleur de grande taille rose clair avec une médiane beaucoup plus foncée pouvant atteindre 25 cm. Les fleurs de ce cultivar apparaissent la plupart du temps sur la partie supérieure de la plante en mai et juin pour la floraison printanière et en septembre pour la floraison d'automne. Lors de la fanaison la couleur des sépales vire légèrement au rose pale.
-Bouton floral et pédoncule
-Le bouton floral de Liberation est allongé et ovoïde d'environ 4 à 5 cm, de couleur vert/gris à un quart de son ouverture. Le pédoncule quant à lui mesure environ 11 à 15 cm de couleur verte également[2].
-Sépales
-Les sépales de la clématite Liberation mesurent entre 10 et 12 cm de long. Ils sont ondulés et striés le long de la nervure centrale mais ne se chevauchent pas ou très peu.
-Étamines et stigmates
-Liberation possède des  étamines de couleur jaune or et des stigmates de la même couleur.
-Parfum
-Cette clématite n'a pas de parfum.
 </t>
         </is>
       </c>
@@ -539,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evifive%27</t>
+          <t>Clematis_patens_'Evifive'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Obtention</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'objectif de la création de ce nouveau cultivar était de produire une plante avec une grande fleur colorée, un port très droit et une floraison compacte idéal pour la culture en pot[2], le but a été atteint pour les obtenteurs Raymond Evison et Mogens Olesen. Liberation a été obtenue par des semis de hasard, c'est-à-dire des semis  de graines non identifiées[2].
-La reproduction asexuée de ce cultivar pour la commercialisation a commencé dans les pépinières de Raymond Evison sur l’île de Guernesey en 1990[2].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles caduques de cette clématite sont parfois simples, parfois alternes et trifoliées. En moyenne elles mesurent 10 cm. De mars à octobre les feuilles sont vertes, en novembre elles virent au jaune juste avant de tomber.
 </t>
         </is>
       </c>
@@ -571,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evifive%27</t>
+          <t>Clematis_patens_'Evifive'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,12 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Evifive' est protégé par l'Union internationale pour la protection des obtentions végétales sous licence PBR &amp; PPaf portant le numéro 1989 obtenue le 21 juillet 1997. Le nom commercial 'Liberation' est protégé par une licence trademark.
+          <t>Tiges</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges de la clématite Liberation apparaissent de couleur verte sur les pousses de l'année, en vieillissant le bois se durcit et devient rougeâtre et marron.
 </t>
         </is>
       </c>
@@ -602,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evifive%27</t>
+          <t>Clematis_patens_'Evifive'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,26 +628,509 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Liberation dispose d'une fleur de grande taille rose clair avec une médiane beaucoup plus foncée pouvant atteindre 25 cm. Les fleurs de ce cultivar apparaissent la plupart du temps sur la partie supérieure de la plante en mai et juin pour la floraison printanière et en septembre pour la floraison d'automne. Lors de la fanaison la couleur des sépales vire légèrement au rose pale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evifive'</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evifive%27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bouton floral et pédoncule</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bouton floral de Liberation est allongé et ovoïde d'environ 4 à 5 cm, de couleur vert/gris à un quart de son ouverture. Le pédoncule quant à lui mesure environ 11 à 15 cm de couleur verte également.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evifive'</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evifive%27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sépales</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sépales de la clématite Liberation mesurent entre 10 et 12 cm de long. Ils sont ondulés et striés le long de la nervure centrale mais ne se chevauchent pas ou très peu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evifive'</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evifive%27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Étamines et stigmates</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liberation possède des  étamines de couleur jaune or et des stigmates de la même couleur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evifive'</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evifive%27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Parfum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite n'a pas de parfum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evifive'</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evifive%27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Obtention</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'objectif de la création de ce nouveau cultivar était de produire une plante avec une grande fleur colorée, un port très droit et une floraison compacte idéal pour la culture en pot, le but a été atteint pour les obtenteurs Raymond Evison et Mogens Olesen. Liberation a été obtenue par des semis de hasard, c'est-à-dire des semis  de graines non identifiées.
+La reproduction asexuée de ce cultivar pour la commercialisation a commencé dans les pépinières de Raymond Evison sur l’île de Guernesey en 1990.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evifive'</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evifive%27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Evifive' est protégé par l'Union internationale pour la protection des obtentions végétales sous licence PBR &amp; PPaf portant le numéro 1989 obtenue le 21 juillet 1997. Le nom commercial 'Liberation' est protégé par une licence trademark.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evifive'</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evifive%27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantation
-La clématite Liberation s'épanouit très bien en pot ou en pleine terre. Elle doit être plantée dans un mélange drainant, fertile et léger. Les racines préfèrent  un sol frais et ombragé.
-Croissance
-À taille adulte cette clématite dispose d'une croissance importante entre 2,50 et 3 mètres[3].
-Floraison
-Liberation fleurit deux fois par an sur les pousses de l'année précédente du mois de mai et juin pour la floraison printanière et en septembre pour la floraison sur le bois de l'année de l'automne. Elle fait partie du groupe 2[3].
-Utilisations
-Liberation est parfait pour les pergolas, treillis, tonnelles et clôtures. Elle peut aussi grimper sur des supports naturels tels que les feuillus, des conifères et des arbustes.
-Raymond Evison recommande également cette clématite pour l'utilisation en fleurs coupées[2].
-Taille
-La clématite Liberation a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille modérée, c'est-à-dire une taille de 30 cm ou un tiers des branches.
-Résistance
-Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
-Maladies et ravageurs
-La clématite Liberation est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Plantation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Liberation s'épanouit très bien en pot ou en pleine terre. Elle doit être plantée dans un mélange drainant, fertile et léger. Les racines préfèrent  un sol frais et ombragé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evifive'</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evifive%27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Croissance</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À taille adulte cette clématite dispose d'une croissance importante entre 2,50 et 3 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evifive'</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evifive%27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liberation fleurit deux fois par an sur les pousses de l'année précédente du mois de mai et juin pour la floraison printanière et en septembre pour la floraison sur le bois de l'année de l'automne. Elle fait partie du groupe 2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evifive'</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evifive%27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liberation est parfait pour les pergolas, treillis, tonnelles et clôtures. Elle peut aussi grimper sur des supports naturels tels que les feuillus, des conifères et des arbustes.
+Raymond Evison recommande également cette clématite pour l'utilisation en fleurs coupées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evifive'</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evifive%27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Liberation a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille modérée, c'est-à-dire une taille de 30 cm ou un tiers des branches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evifive'</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evifive%27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Résistance</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evifive'</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evifive%27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Maladies et ravageurs</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Liberation est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
 Les limaces peuvent également s'attaquer à cette clématite et notamment aux jeunes pousses du printemps.
 </t>
         </is>
